--- a/warning_part.xlsx
+++ b/warning_part.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>K-1-2</t>
+  </si>
+  <si>
+    <t>Mũi khoan  phi 5</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>C-02</t>
   </si>
   <si>
     <t>kim khâu</t>
@@ -411,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -448,16 +457,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/warning_part.xlsx
+++ b/warning_part.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -34,16 +34,49 @@
     <t>K-1-2</t>
   </si>
   <si>
+    <t>khuy áo 1111</t>
+  </si>
+  <si>
+    <t>ka001</t>
+  </si>
+  <si>
+    <t>K-2-3</t>
+  </si>
+  <si>
+    <t>Mũi khoan  phi 2</t>
+  </si>
+  <si>
+    <t>2mm</t>
+  </si>
+  <si>
+    <t>C-02</t>
+  </si>
+  <si>
+    <t>Mũi khoan  phi 3</t>
+  </si>
+  <si>
+    <t>3mm</t>
+  </si>
+  <si>
+    <t>kim khâu</t>
+  </si>
+  <si>
+    <t>kh002</t>
+  </si>
+  <si>
     <t>Mũi khoan  phi 5</t>
   </si>
   <si>
     <t>5mm</t>
   </si>
   <si>
-    <t>C-02</t>
-  </si>
-  <si>
-    <t>kim khâu</t>
+    <t>Ke vuông</t>
+  </si>
+  <si>
+    <t>KV120</t>
+  </si>
+  <si>
+    <t>D-30</t>
   </si>
 </sst>
 </file>
@@ -420,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -457,7 +490,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -471,44 +504,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
